--- a/resultados/Venda de Drone/Com SPAD 3 Drones/vel20/field_36ha_100ha_10%_6m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 3 Drones/vel20/field_36ha_100ha_10%_6m_0_TSP/Planilha_Unificada.xlsx
@@ -2727,28 +2727,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>637.2556419730798</v>
+        <v>710.1571209136968</v>
       </c>
       <c r="AB2" t="n">
-        <v>871.9212830823247</v>
+        <v>971.6683027551404</v>
       </c>
       <c r="AC2" t="n">
-        <v>788.7063395741535</v>
+        <v>878.9336436852174</v>
       </c>
       <c r="AD2" t="n">
-        <v>637255.6419730799</v>
+        <v>710157.1209136967</v>
       </c>
       <c r="AE2" t="n">
-        <v>871921.2830823248</v>
+        <v>971668.3027551405</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.344208291920199e-06</v>
+        <v>2.272450812000005e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.0733024691358</v>
       </c>
       <c r="AH2" t="n">
-        <v>788706.3395741535</v>
+        <v>878933.6436852174</v>
       </c>
     </row>
     <row r="3">
@@ -2833,28 +2833,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>382.9132054302971</v>
+        <v>445.3147698032104</v>
       </c>
       <c r="AB3" t="n">
-        <v>523.9187406081134</v>
+        <v>609.2993139458591</v>
       </c>
       <c r="AC3" t="n">
-        <v>473.9166713290449</v>
+        <v>551.1486425798238</v>
       </c>
       <c r="AD3" t="n">
-        <v>382913.2054302971</v>
+        <v>445314.7698032104</v>
       </c>
       <c r="AE3" t="n">
-        <v>523918.7406081134</v>
+        <v>609299.3139458591</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.878057765933437e-06</v>
+        <v>3.174949835402235e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.78703703703704</v>
       </c>
       <c r="AH3" t="n">
-        <v>473916.6713290449</v>
+        <v>551148.6425798237</v>
       </c>
     </row>
     <row r="4">
@@ -2939,28 +2939,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>325.8240397299136</v>
+        <v>377.8964607528177</v>
       </c>
       <c r="AB4" t="n">
-        <v>445.8068255006116</v>
+        <v>517.054609217231</v>
       </c>
       <c r="AC4" t="n">
-        <v>403.2596477686416</v>
+        <v>467.7076430042396</v>
       </c>
       <c r="AD4" t="n">
-        <v>325824.0397299136</v>
+        <v>377896.4607528177</v>
       </c>
       <c r="AE4" t="n">
-        <v>445806.8255006116</v>
+        <v>517054.609217231</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.086975936875361e-06</v>
+        <v>3.528136369105537e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.706790123456791</v>
       </c>
       <c r="AH4" t="n">
-        <v>403259.6477686416</v>
+        <v>467707.6430042397</v>
       </c>
     </row>
     <row r="5">
@@ -3045,28 +3045,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>302.7835116415504</v>
+        <v>344.4415379684248</v>
       </c>
       <c r="AB5" t="n">
-        <v>414.2817584937532</v>
+        <v>471.2801079365972</v>
       </c>
       <c r="AC5" t="n">
-        <v>374.7432889112085</v>
+        <v>426.3017958809133</v>
       </c>
       <c r="AD5" t="n">
-        <v>302783.5116415504</v>
+        <v>344441.5379684248</v>
       </c>
       <c r="AE5" t="n">
-        <v>414281.7584937532</v>
+        <v>471280.1079365972</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.195531457070675e-06</v>
+        <v>3.711654862108233e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>10</v>
+        <v>9.228395061728396</v>
       </c>
       <c r="AH5" t="n">
-        <v>374743.2889112085</v>
+        <v>426301.7958809133</v>
       </c>
     </row>
     <row r="6">
@@ -3151,28 +3151,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>275.8919457775556</v>
+        <v>327.8790259458881</v>
       </c>
       <c r="AB6" t="n">
-        <v>377.4875317064794</v>
+        <v>448.6185483009013</v>
       </c>
       <c r="AC6" t="n">
-        <v>341.4606514874905</v>
+        <v>405.8030236911496</v>
       </c>
       <c r="AD6" t="n">
-        <v>275891.9457775556</v>
+        <v>327879.0259458881</v>
       </c>
       <c r="AE6" t="n">
-        <v>377487.5317064794</v>
+        <v>448618.5483009013</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.265590994535865e-06</v>
+        <v>3.830093986281237e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>9</v>
+        <v>8.942901234567902</v>
       </c>
       <c r="AH6" t="n">
-        <v>341460.6514874905</v>
+        <v>405803.0236911496</v>
       </c>
     </row>
     <row r="7">
@@ -3257,28 +3257,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>263.1647289462643</v>
+        <v>315.1518091145969</v>
       </c>
       <c r="AB7" t="n">
-        <v>360.0735921527278</v>
+        <v>431.2046087471497</v>
       </c>
       <c r="AC7" t="n">
-        <v>325.7086738841313</v>
+        <v>390.0510460877904</v>
       </c>
       <c r="AD7" t="n">
-        <v>263164.7289462644</v>
+        <v>315151.8091145969</v>
       </c>
       <c r="AE7" t="n">
-        <v>360073.5921527278</v>
+        <v>431204.6087471497</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.312017254745182e-06</v>
+        <v>3.908579882659749e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>9</v>
+        <v>8.765432098765432</v>
       </c>
       <c r="AH7" t="n">
-        <v>325708.6738841312</v>
+        <v>390051.0460877904</v>
       </c>
     </row>
     <row r="8">
@@ -3363,28 +3363,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>261.1600600909442</v>
+        <v>313.1471402592767</v>
       </c>
       <c r="AB8" t="n">
-        <v>357.3307157851307</v>
+        <v>428.4617323795526</v>
       </c>
       <c r="AC8" t="n">
-        <v>323.2275737874064</v>
+        <v>387.5699459910655</v>
       </c>
       <c r="AD8" t="n">
-        <v>261160.0600909442</v>
+        <v>313147.1402592767</v>
       </c>
       <c r="AE8" t="n">
-        <v>357330.7157851307</v>
+        <v>428461.7323795526</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.323466264615805e-06</v>
+        <v>3.927935001902412e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>9</v>
+        <v>8.719135802469136</v>
       </c>
       <c r="AH8" t="n">
-        <v>323227.5737874064</v>
+        <v>387569.9459910655</v>
       </c>
     </row>
   </sheetData>
@@ -3660,28 +3660,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>484.3701313530046</v>
+        <v>544.9136279247165</v>
       </c>
       <c r="AB2" t="n">
-        <v>662.7365826192356</v>
+        <v>745.5748656192114</v>
       </c>
       <c r="AC2" t="n">
-        <v>599.4859333306907</v>
+        <v>674.4182468654092</v>
       </c>
       <c r="AD2" t="n">
-        <v>484370.1313530046</v>
+        <v>544913.6279247164</v>
       </c>
       <c r="AE2" t="n">
-        <v>662736.5826192356</v>
+        <v>745574.8656192115</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.591040687719643e-06</v>
+        <v>2.755349955532596e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.17515432098765</v>
       </c>
       <c r="AH2" t="n">
-        <v>599485.9333306907</v>
+        <v>674418.2468654092</v>
       </c>
     </row>
     <row r="3">
@@ -3766,28 +3766,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>324.1030915793923</v>
+        <v>374.4706794526724</v>
       </c>
       <c r="AB3" t="n">
-        <v>443.4521483181943</v>
+        <v>512.3673041075679</v>
       </c>
       <c r="AC3" t="n">
-        <v>401.1296976717042</v>
+        <v>463.4676877155686</v>
       </c>
       <c r="AD3" t="n">
-        <v>324103.0915793923</v>
+        <v>374470.6794526724</v>
       </c>
       <c r="AE3" t="n">
-        <v>443452.1483181943</v>
+        <v>512367.3041075679</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.086145819602488e-06</v>
+        <v>3.612768570686039e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.0462962962963</v>
       </c>
       <c r="AH3" t="n">
-        <v>401129.6976717042</v>
+        <v>463467.6877155686</v>
       </c>
     </row>
     <row r="4">
@@ -3872,28 +3872,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>278.6818881388674</v>
+        <v>319.0442490228589</v>
       </c>
       <c r="AB4" t="n">
-        <v>381.3048539287963</v>
+        <v>436.5304167519631</v>
       </c>
       <c r="AC4" t="n">
-        <v>344.9136538345549</v>
+        <v>394.8685664514427</v>
       </c>
       <c r="AD4" t="n">
-        <v>278681.8881388673</v>
+        <v>319044.2490228589</v>
       </c>
       <c r="AE4" t="n">
-        <v>381304.8539287963</v>
+        <v>436530.4167519631</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.27537562036491e-06</v>
+        <v>3.940475037994218e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.212962962962964</v>
       </c>
       <c r="AH4" t="n">
-        <v>344913.6538345549</v>
+        <v>394868.5664514427</v>
       </c>
     </row>
     <row r="5">
@@ -3978,28 +3978,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>248.301993746642</v>
+        <v>298.6694921113742</v>
       </c>
       <c r="AB5" t="n">
-        <v>339.7377421548441</v>
+        <v>408.6527754748337</v>
       </c>
       <c r="AC5" t="n">
-        <v>307.3136488686028</v>
+        <v>369.6515281312874</v>
       </c>
       <c r="AD5" t="n">
-        <v>248301.993746642</v>
+        <v>298669.4921113742</v>
       </c>
       <c r="AE5" t="n">
-        <v>339737.742154844</v>
+        <v>408652.7754748337</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.372245196810329e-06</v>
+        <v>4.108232899381092e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.834876543209877</v>
       </c>
       <c r="AH5" t="n">
-        <v>307313.6488686028</v>
+        <v>369651.5281312874</v>
       </c>
     </row>
     <row r="6">
@@ -4084,28 +4084,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>242.1349972658944</v>
+        <v>292.5024956306265</v>
       </c>
       <c r="AB6" t="n">
-        <v>331.2997855012063</v>
+        <v>400.2148188211916</v>
       </c>
       <c r="AC6" t="n">
-        <v>299.680998955239</v>
+        <v>362.0188782179224</v>
       </c>
       <c r="AD6" t="n">
-        <v>242134.9972658944</v>
+        <v>292502.4956306265</v>
       </c>
       <c r="AE6" t="n">
-        <v>331299.7855012062</v>
+        <v>400214.8188211916</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.401202843610896e-06</v>
+        <v>4.158381491708185e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>9</v>
+        <v>8.730709876543209</v>
       </c>
       <c r="AH6" t="n">
-        <v>299680.998955239</v>
+        <v>362018.8782179224</v>
       </c>
     </row>
     <row r="7">
@@ -4190,28 +4190,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>242.9941929329775</v>
+        <v>293.3616912977095</v>
       </c>
       <c r="AB7" t="n">
-        <v>332.4753749179464</v>
+        <v>401.3904082379323</v>
       </c>
       <c r="AC7" t="n">
-        <v>300.7443917679959</v>
+        <v>363.0822710306795</v>
       </c>
       <c r="AD7" t="n">
-        <v>242994.1929329775</v>
+        <v>293361.6912977095</v>
       </c>
       <c r="AE7" t="n">
-        <v>332475.3749179464</v>
+        <v>401390.4082379323</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.400550889086305e-06</v>
+        <v>4.15725244272521e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>9</v>
+        <v>8.730709876543209</v>
       </c>
       <c r="AH7" t="n">
-        <v>300744.3917679959</v>
+        <v>363082.2710306795</v>
       </c>
     </row>
   </sheetData>
@@ -4487,28 +4487,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>227.5370438099635</v>
+        <v>273.1138718735431</v>
       </c>
       <c r="AB2" t="n">
-        <v>311.3262215665575</v>
+        <v>373.6864484310387</v>
       </c>
       <c r="AC2" t="n">
-        <v>281.6136839294338</v>
+        <v>338.022338265004</v>
       </c>
       <c r="AD2" t="n">
-        <v>227537.0438099635</v>
+        <v>273113.8718735431</v>
       </c>
       <c r="AE2" t="n">
-        <v>311326.2215665575</v>
+        <v>373686.4484310387</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.398522246160629e-06</v>
+        <v>4.538520227065385e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.753086419753087</v>
       </c>
       <c r="AH2" t="n">
-        <v>281613.6839294338</v>
+        <v>338022.338265004</v>
       </c>
     </row>
     <row r="3">
@@ -4593,28 +4593,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>205.7012516177605</v>
+        <v>242.1628035771726</v>
       </c>
       <c r="AB3" t="n">
-        <v>281.4495273620371</v>
+        <v>331.3378313230249</v>
       </c>
       <c r="AC3" t="n">
-        <v>254.5883794875796</v>
+        <v>299.715413737221</v>
       </c>
       <c r="AD3" t="n">
-        <v>205701.2516177605</v>
+        <v>242162.8035771726</v>
       </c>
       <c r="AE3" t="n">
-        <v>281449.5273620372</v>
+        <v>331337.8313230249</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.578211355897261e-06</v>
+        <v>4.878530689936222e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.070216049382717</v>
       </c>
       <c r="AH3" t="n">
-        <v>254588.3794875796</v>
+        <v>299715.413737221</v>
       </c>
     </row>
   </sheetData>
@@ -4890,28 +4890,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>302.3881578547825</v>
+        <v>359.2826016740457</v>
       </c>
       <c r="AB2" t="n">
-        <v>413.7408180009192</v>
+        <v>491.5863060401489</v>
       </c>
       <c r="AC2" t="n">
-        <v>374.2539750197958</v>
+        <v>444.6699989373902</v>
       </c>
       <c r="AD2" t="n">
-        <v>302388.1578547825</v>
+        <v>359282.6016740457</v>
       </c>
       <c r="AE2" t="n">
-        <v>413740.8180009192</v>
+        <v>491586.3060401489</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.071533969783983e-06</v>
+        <v>3.773885008012113e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.80246913580247</v>
       </c>
       <c r="AH2" t="n">
-        <v>374253.9750197958</v>
+        <v>444669.9989373902</v>
       </c>
     </row>
     <row r="3">
@@ -4996,28 +4996,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>228.9103249673188</v>
+        <v>266.8969375917626</v>
       </c>
       <c r="AB3" t="n">
-        <v>313.205205430939</v>
+        <v>365.1801646749232</v>
       </c>
       <c r="AC3" t="n">
-        <v>283.3133402109696</v>
+        <v>330.3278822919279</v>
       </c>
       <c r="AD3" t="n">
-        <v>228910.3249673188</v>
+        <v>266896.9375917626</v>
       </c>
       <c r="AE3" t="n">
-        <v>313205.205430939</v>
+        <v>365180.1646749232</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.479426304446919e-06</v>
+        <v>4.516976257839908e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.023919753086421</v>
       </c>
       <c r="AH3" t="n">
-        <v>283313.3402109696</v>
+        <v>330327.8822919279</v>
       </c>
     </row>
     <row r="4">
@@ -5102,28 +5102,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>212.8445309826555</v>
+        <v>260.2423440229488</v>
       </c>
       <c r="AB4" t="n">
-        <v>291.2232773283257</v>
+        <v>356.0750561741238</v>
       </c>
       <c r="AC4" t="n">
-        <v>263.4293364746329</v>
+        <v>322.0917525673448</v>
       </c>
       <c r="AD4" t="n">
-        <v>212844.5309826555</v>
+        <v>260242.3440229488</v>
       </c>
       <c r="AE4" t="n">
-        <v>291223.2773283257</v>
+        <v>356075.0561741238</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.524373917039521e-06</v>
+        <v>4.598861046495751e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.861882716049383</v>
       </c>
       <c r="AH4" t="n">
-        <v>263429.3364746328</v>
+        <v>322091.7525673448</v>
       </c>
     </row>
   </sheetData>
@@ -5399,28 +5399,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>193.6585186453045</v>
+        <v>237.5011762800483</v>
       </c>
       <c r="AB2" t="n">
-        <v>264.9721288212488</v>
+        <v>324.9595871986209</v>
       </c>
       <c r="AC2" t="n">
-        <v>239.6835607373447</v>
+        <v>293.9459002801261</v>
       </c>
       <c r="AD2" t="n">
-        <v>193658.5186453045</v>
+        <v>237501.1762800483</v>
       </c>
       <c r="AE2" t="n">
-        <v>264972.1288212488</v>
+        <v>324959.5871986209</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.576759780154391e-06</v>
+        <v>5.049618935896368e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.425154320987653</v>
       </c>
       <c r="AH2" t="n">
-        <v>239683.5607373447</v>
+        <v>293945.9002801261</v>
       </c>
     </row>
     <row r="3">
@@ -5505,28 +5505,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>194.7247362779261</v>
+        <v>238.56739391267</v>
       </c>
       <c r="AB3" t="n">
-        <v>266.4309748244031</v>
+        <v>326.4184332017753</v>
       </c>
       <c r="AC3" t="n">
-        <v>241.0031765254617</v>
+        <v>295.2655160682431</v>
       </c>
       <c r="AD3" t="n">
-        <v>194724.7362779261</v>
+        <v>238567.39391267</v>
       </c>
       <c r="AE3" t="n">
-        <v>266430.9748244031</v>
+        <v>326418.4332017753</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.577137558008536e-06</v>
+        <v>5.050359258770292e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.425154320987653</v>
       </c>
       <c r="AH3" t="n">
-        <v>241003.1765254617</v>
+        <v>295265.5160682431</v>
       </c>
     </row>
   </sheetData>
@@ -5802,28 +5802,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>513.7185670694286</v>
+        <v>584.948512499541</v>
       </c>
       <c r="AB2" t="n">
-        <v>702.8924071280509</v>
+        <v>800.3523609089408</v>
       </c>
       <c r="AC2" t="n">
-        <v>635.8093423074383</v>
+        <v>723.9678548853843</v>
       </c>
       <c r="AD2" t="n">
-        <v>513718.5670694285</v>
+        <v>584948.512499541</v>
       </c>
       <c r="AE2" t="n">
-        <v>702892.4071280509</v>
+        <v>800352.3609089408</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.526891249449441e-06</v>
+        <v>2.626987700252258e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.6033950617284</v>
       </c>
       <c r="AH2" t="n">
-        <v>635809.3423074384</v>
+        <v>723967.8548853843</v>
       </c>
     </row>
     <row r="3">
@@ -5908,28 +5908,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>339.3440592321248</v>
+        <v>390.1373403361846</v>
       </c>
       <c r="AB3" t="n">
-        <v>464.3055126447012</v>
+        <v>533.8031206926876</v>
       </c>
       <c r="AC3" t="n">
-        <v>419.9928461747699</v>
+        <v>482.8577000511621</v>
       </c>
       <c r="AD3" t="n">
-        <v>339344.0592321248</v>
+        <v>390137.3403361847</v>
       </c>
       <c r="AE3" t="n">
-        <v>464305.5126447012</v>
+        <v>533803.1206926876</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.026217369813138e-06</v>
+        <v>3.48606890664668e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.25077160493827</v>
       </c>
       <c r="AH3" t="n">
-        <v>419992.8461747699</v>
+        <v>482857.700051162</v>
       </c>
     </row>
     <row r="4">
@@ -6014,28 +6014,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>290.3295983737231</v>
+        <v>341.0375386232113</v>
       </c>
       <c r="AB4" t="n">
-        <v>397.241764932835</v>
+        <v>466.6226058586237</v>
       </c>
       <c r="AC4" t="n">
-        <v>359.3295684199632</v>
+        <v>422.0887992644163</v>
       </c>
       <c r="AD4" t="n">
-        <v>290329.598373723</v>
+        <v>341037.5386232113</v>
       </c>
       <c r="AE4" t="n">
-        <v>397241.764932835</v>
+        <v>466622.6058586237</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.225915513055424e-06</v>
+        <v>3.829645809225601e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.332561728395062</v>
       </c>
       <c r="AH4" t="n">
-        <v>359329.5684199632</v>
+        <v>422088.7992644163</v>
       </c>
     </row>
     <row r="5">
@@ -6120,28 +6120,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>258.0635767645056</v>
+        <v>308.8567683600176</v>
       </c>
       <c r="AB5" t="n">
-        <v>353.0939706905272</v>
+        <v>422.5914562691365</v>
       </c>
       <c r="AC5" t="n">
-        <v>319.3951776984292</v>
+        <v>382.2599207936433</v>
       </c>
       <c r="AD5" t="n">
-        <v>258063.5767645056</v>
+        <v>308856.7683600176</v>
       </c>
       <c r="AE5" t="n">
-        <v>353093.9706905272</v>
+        <v>422591.4562691365</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.331606388004091e-06</v>
+        <v>4.011484973356747e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.908179012345679</v>
       </c>
       <c r="AH5" t="n">
-        <v>319395.1776984292</v>
+        <v>382259.9207936433</v>
       </c>
     </row>
     <row r="6">
@@ -6226,28 +6226,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>248.1062239270405</v>
+        <v>298.8994155225523</v>
       </c>
       <c r="AB6" t="n">
-        <v>339.4698812509104</v>
+        <v>408.9673668295127</v>
       </c>
       <c r="AC6" t="n">
-        <v>307.0713522333953</v>
+        <v>369.9360953286076</v>
       </c>
       <c r="AD6" t="n">
-        <v>248106.2239270405</v>
+        <v>298899.4155225523</v>
       </c>
       <c r="AE6" t="n">
-        <v>339469.8812509104</v>
+        <v>408967.3668295128</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.374087335703785e-06</v>
+        <v>4.08457264554191e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AH6" t="n">
-        <v>307071.3522333953</v>
+        <v>369936.0953286076</v>
       </c>
     </row>
     <row r="7">
@@ -6332,28 +6332,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>246.9555692663821</v>
+        <v>297.748760861894</v>
       </c>
       <c r="AB7" t="n">
-        <v>337.8955047808976</v>
+        <v>407.3929903594991</v>
       </c>
       <c r="AC7" t="n">
-        <v>305.6472320440288</v>
+        <v>368.5119751392409</v>
       </c>
       <c r="AD7" t="n">
-        <v>246955.5692663821</v>
+        <v>297748.760861894</v>
       </c>
       <c r="AE7" t="n">
-        <v>337895.5047808976</v>
+        <v>407392.9903594991</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.383671123651244e-06</v>
+        <v>4.101061372600161e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>9</v>
+        <v>8.715277777777779</v>
       </c>
       <c r="AH7" t="n">
-        <v>305647.2320440288</v>
+        <v>368511.9751392409</v>
       </c>
     </row>
   </sheetData>
@@ -6629,28 +6629,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>187.233304789006</v>
+        <v>230.3206822036118</v>
       </c>
       <c r="AB2" t="n">
-        <v>256.1808677626358</v>
+        <v>315.134918422204</v>
       </c>
       <c r="AC2" t="n">
-        <v>231.7313252955506</v>
+        <v>285.0588841027181</v>
       </c>
       <c r="AD2" t="n">
-        <v>187233.304789006</v>
+        <v>230320.6822036118</v>
       </c>
       <c r="AE2" t="n">
-        <v>256180.8677626359</v>
+        <v>315134.918422204</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.556400690963716e-06</v>
+        <v>5.124715171903496e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.726080246913581</v>
       </c>
       <c r="AH2" t="n">
-        <v>231731.3252955506</v>
+        <v>285058.8841027181</v>
       </c>
     </row>
   </sheetData>
@@ -6926,28 +6926,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>381.7869477127605</v>
+        <v>450.3160282138221</v>
       </c>
       <c r="AB2" t="n">
-        <v>522.3777451119961</v>
+        <v>616.1422563432069</v>
       </c>
       <c r="AC2" t="n">
-        <v>472.5227462802764</v>
+        <v>557.3385041588983</v>
       </c>
       <c r="AD2" t="n">
-        <v>381786.9477127605</v>
+        <v>450316.0282138221</v>
       </c>
       <c r="AE2" t="n">
-        <v>522377.7451119961</v>
+        <v>616142.2563432069</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.8144706379388e-06</v>
+        <v>3.213562327477628e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.90200617283951</v>
       </c>
       <c r="AH2" t="n">
-        <v>472522.7462802763</v>
+        <v>557338.5041588984</v>
       </c>
     </row>
     <row r="3">
@@ -7032,28 +7032,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>271.2533638569253</v>
+        <v>320.3246225785001</v>
       </c>
       <c r="AB3" t="n">
-        <v>371.1408192828815</v>
+        <v>438.2822803368858</v>
       </c>
       <c r="AC3" t="n">
-        <v>335.7196603899339</v>
+        <v>396.4532346345766</v>
       </c>
       <c r="AD3" t="n">
-        <v>271253.3638569253</v>
+        <v>320324.6225785001</v>
       </c>
       <c r="AE3" t="n">
-        <v>371140.8192828814</v>
+        <v>438282.2803368858</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.271069033547832e-06</v>
+        <v>4.022232014512489e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.51003086419753</v>
       </c>
       <c r="AH3" t="n">
-        <v>335719.6603899339</v>
+        <v>396453.2346345766</v>
       </c>
     </row>
     <row r="4">
@@ -7138,28 +7138,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>232.3508212973574</v>
+        <v>281.3367391643635</v>
       </c>
       <c r="AB4" t="n">
-        <v>317.9126442936811</v>
+        <v>384.9373382256412</v>
       </c>
       <c r="AC4" t="n">
-        <v>287.5715077155852</v>
+        <v>348.1994589283325</v>
       </c>
       <c r="AD4" t="n">
-        <v>232350.8212973574</v>
+        <v>281336.7391643635</v>
       </c>
       <c r="AE4" t="n">
-        <v>317912.6442936811</v>
+        <v>384937.3382256412</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.435807182165876e-06</v>
+        <v>4.313995516896159e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.86574074074074</v>
       </c>
       <c r="AH4" t="n">
-        <v>287571.5077155852</v>
+        <v>348199.4589283325</v>
       </c>
     </row>
     <row r="5">
@@ -7244,28 +7244,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>228.0140033487348</v>
+        <v>276.9999212157408</v>
       </c>
       <c r="AB5" t="n">
-        <v>311.978818649474</v>
+        <v>379.0035125814309</v>
       </c>
       <c r="AC5" t="n">
-        <v>282.2039980626826</v>
+        <v>342.8319492754291</v>
       </c>
       <c r="AD5" t="n">
-        <v>228014.0033487348</v>
+        <v>276999.9212157407</v>
       </c>
       <c r="AE5" t="n">
-        <v>311978.8186494739</v>
+        <v>379003.5125814308</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.465698507807071e-06</v>
+        <v>4.366935275738456e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.757716049382715</v>
       </c>
       <c r="AH5" t="n">
-        <v>282203.9980626826</v>
+        <v>342831.9492754291</v>
       </c>
     </row>
   </sheetData>
@@ -7541,28 +7541,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>444.6261509022312</v>
+        <v>514.5561519044392</v>
       </c>
       <c r="AB2" t="n">
-        <v>608.3571151858175</v>
+        <v>704.0384276509475</v>
       </c>
       <c r="AC2" t="n">
-        <v>550.2963659470561</v>
+        <v>636.8459882400795</v>
       </c>
       <c r="AD2" t="n">
-        <v>444626.1509022312</v>
+        <v>514556.1519044391</v>
       </c>
       <c r="AE2" t="n">
-        <v>608357.1151858175</v>
+        <v>704038.4276509475</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.663411833293787e-06</v>
+        <v>2.900844989466561e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.71990740740741</v>
       </c>
       <c r="AH2" t="n">
-        <v>550296.3659470561</v>
+        <v>636845.9882400795</v>
       </c>
     </row>
     <row r="3">
@@ -7647,28 +7647,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>299.6527005582603</v>
+        <v>349.6636590273886</v>
       </c>
       <c r="AB3" t="n">
-        <v>409.9980446479587</v>
+        <v>478.4252443531928</v>
       </c>
       <c r="AC3" t="n">
-        <v>370.8684067026265</v>
+        <v>432.7650105061709</v>
       </c>
       <c r="AD3" t="n">
-        <v>299652.7005582603</v>
+        <v>349663.6590273886</v>
       </c>
       <c r="AE3" t="n">
-        <v>409998.0446479588</v>
+        <v>478425.2443531928</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.144133410623077e-06</v>
+        <v>3.739181444103192e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.868827160493828</v>
       </c>
       <c r="AH3" t="n">
-        <v>370868.4067026266</v>
+        <v>432765.0105061709</v>
       </c>
     </row>
     <row r="4">
@@ -7753,28 +7753,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>266.3164750216431</v>
+        <v>306.3253313054967</v>
       </c>
       <c r="AB4" t="n">
-        <v>364.3859501782844</v>
+        <v>419.1278324120201</v>
       </c>
       <c r="AC4" t="n">
-        <v>329.6094665121612</v>
+        <v>379.1268603362234</v>
       </c>
       <c r="AD4" t="n">
-        <v>266316.4750216431</v>
+        <v>306325.3313054967</v>
       </c>
       <c r="AE4" t="n">
-        <v>364385.9501782844</v>
+        <v>419127.8324120201</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.327317673975026e-06</v>
+        <v>4.058638803884865e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.093364197530866</v>
       </c>
       <c r="AH4" t="n">
-        <v>329609.4665121612</v>
+        <v>379126.8603362234</v>
       </c>
     </row>
     <row r="5">
@@ -7859,28 +7859,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>238.2283313729059</v>
+        <v>288.1539489874655</v>
       </c>
       <c r="AB5" t="n">
-        <v>325.9545128764868</v>
+        <v>394.2649454596806</v>
       </c>
       <c r="AC5" t="n">
-        <v>294.8458716476838</v>
+        <v>356.6368524193342</v>
       </c>
       <c r="AD5" t="n">
-        <v>238228.3313729059</v>
+        <v>288153.9489874655</v>
       </c>
       <c r="AE5" t="n">
-        <v>325954.5128764868</v>
+        <v>394264.9454596806</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.416715982137802e-06</v>
+        <v>4.214541647131607e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.753858024691359</v>
       </c>
       <c r="AH5" t="n">
-        <v>294845.8716476838</v>
+        <v>356636.8524193342</v>
       </c>
     </row>
     <row r="6">
@@ -7965,28 +7965,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>237.5774134354509</v>
+        <v>287.5030310500105</v>
       </c>
       <c r="AB6" t="n">
-        <v>325.0638982379887</v>
+        <v>393.374330821182</v>
       </c>
       <c r="AC6" t="n">
-        <v>294.0402560202981</v>
+        <v>355.8312367919484</v>
       </c>
       <c r="AD6" t="n">
-        <v>237577.4134354509</v>
+        <v>287503.0310500105</v>
       </c>
       <c r="AE6" t="n">
-        <v>325063.8982379886</v>
+        <v>393374.3308211819</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.422529614447775e-06</v>
+        <v>4.224680114238452e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>9</v>
+        <v>8.734567901234568</v>
       </c>
       <c r="AH6" t="n">
-        <v>294040.2560202981</v>
+        <v>355831.2367919484</v>
       </c>
     </row>
   </sheetData>
@@ -8262,28 +8262,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>590.9473279883096</v>
+        <v>673.5613897245329</v>
       </c>
       <c r="AB2" t="n">
-        <v>808.5602049097351</v>
+        <v>921.5964088524114</v>
       </c>
       <c r="AC2" t="n">
-        <v>731.3923537745243</v>
+        <v>833.6405410602201</v>
       </c>
       <c r="AD2" t="n">
-        <v>590947.3279883096</v>
+        <v>673561.3897245328</v>
       </c>
       <c r="AE2" t="n">
-        <v>808560.2049097351</v>
+        <v>921596.4088524114</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.401486643483282e-06</v>
+        <v>2.382434408461963e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.57175925925926</v>
       </c>
       <c r="AH2" t="n">
-        <v>731392.3537745243</v>
+        <v>833640.5410602201</v>
       </c>
     </row>
     <row r="3">
@@ -8368,28 +8368,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>367.8062071954724</v>
+        <v>429.745418283997</v>
       </c>
       <c r="AB3" t="n">
-        <v>503.2486791495014</v>
+        <v>587.9966403259592</v>
       </c>
       <c r="AC3" t="n">
-        <v>455.2193315254295</v>
+        <v>531.8790662317167</v>
       </c>
       <c r="AD3" t="n">
-        <v>367806.2071954724</v>
+        <v>429745.418283997</v>
       </c>
       <c r="AE3" t="n">
-        <v>503248.6791495014</v>
+        <v>587996.6403259592</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.926369172384723e-06</v>
+        <v>3.27469992028112e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.60185185185185</v>
       </c>
       <c r="AH3" t="n">
-        <v>455219.3315254295</v>
+        <v>531879.0662317167</v>
       </c>
     </row>
     <row r="4">
@@ -8474,28 +8474,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>314.2059660761267</v>
+        <v>365.8930926953735</v>
       </c>
       <c r="AB4" t="n">
-        <v>429.9104645742648</v>
+        <v>500.6310714898109</v>
       </c>
       <c r="AC4" t="n">
-        <v>388.8804132184229</v>
+        <v>452.8515446669446</v>
       </c>
       <c r="AD4" t="n">
-        <v>314205.9660761267</v>
+        <v>365893.0926953735</v>
       </c>
       <c r="AE4" t="n">
-        <v>429910.4645742648</v>
+        <v>500631.0714898109</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.128857893821738e-06</v>
+        <v>3.618917326504849e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.594907407407408</v>
       </c>
       <c r="AH4" t="n">
-        <v>388880.4132184229</v>
+        <v>452851.5446669445</v>
       </c>
     </row>
     <row r="5">
@@ -8580,28 +8580,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>292.0689527844183</v>
+        <v>333.4187435883668</v>
       </c>
       <c r="AB5" t="n">
-        <v>399.6216263724492</v>
+        <v>456.1982343744345</v>
       </c>
       <c r="AC5" t="n">
-        <v>361.4822992239371</v>
+        <v>412.6593151639809</v>
       </c>
       <c r="AD5" t="n">
-        <v>292068.9527844184</v>
+        <v>333418.7435883668</v>
       </c>
       <c r="AE5" t="n">
-        <v>399621.6263724492</v>
+        <v>456198.2343744345</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.236110743398573e-06</v>
+        <v>3.801240062454987e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>10</v>
+        <v>9.131944444444446</v>
       </c>
       <c r="AH5" t="n">
-        <v>361482.2992239371</v>
+        <v>412659.3151639809</v>
       </c>
     </row>
     <row r="6">
@@ -8686,28 +8686,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>265.5801369825463</v>
+        <v>317.1819227472216</v>
       </c>
       <c r="AB6" t="n">
-        <v>363.3784599882507</v>
+        <v>433.9822997815991</v>
       </c>
       <c r="AC6" t="n">
-        <v>328.698129771843</v>
+        <v>392.5636381884258</v>
       </c>
       <c r="AD6" t="n">
-        <v>265580.1369825463</v>
+        <v>317181.9227472215</v>
       </c>
       <c r="AE6" t="n">
-        <v>363378.4599882507</v>
+        <v>433982.2997815991</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.307100906914139e-06</v>
+        <v>3.921918635460482e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>9</v>
+        <v>8.854166666666666</v>
       </c>
       <c r="AH6" t="n">
-        <v>328698.129771843</v>
+        <v>392563.6381884258</v>
       </c>
     </row>
     <row r="7">
@@ -8792,28 +8792,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>257.3349600078035</v>
+        <v>308.9367457724819</v>
       </c>
       <c r="AB7" t="n">
-        <v>352.0970450997052</v>
+        <v>422.7008848932246</v>
       </c>
       <c r="AC7" t="n">
-        <v>318.493397286801</v>
+        <v>382.3589057034325</v>
       </c>
       <c r="AD7" t="n">
-        <v>257334.9600078035</v>
+        <v>308936.7457724819</v>
       </c>
       <c r="AE7" t="n">
-        <v>352097.0450997052</v>
+        <v>422700.8848932246</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.337593326142302e-06</v>
+        <v>3.973753727221233e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>9</v>
+        <v>8.738425925925926</v>
       </c>
       <c r="AH7" t="n">
-        <v>318493.397286801</v>
+        <v>382358.9057034325</v>
       </c>
     </row>
     <row r="8">
@@ -8898,28 +8898,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>257.5611746739684</v>
+        <v>309.1629604386468</v>
       </c>
       <c r="AB8" t="n">
-        <v>352.4065619858387</v>
+        <v>423.0104017793582</v>
       </c>
       <c r="AC8" t="n">
-        <v>318.7733743157316</v>
+        <v>382.6388827323631</v>
       </c>
       <c r="AD8" t="n">
-        <v>257561.1746739684</v>
+        <v>309162.9604386468</v>
       </c>
       <c r="AE8" t="n">
-        <v>352406.5619858387</v>
+        <v>423010.4017793582</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.336693376269248e-06</v>
+        <v>3.97222387208246e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>9</v>
+        <v>8.742283950617285</v>
       </c>
       <c r="AH8" t="n">
-        <v>318773.3743157316</v>
+        <v>382638.8827323631</v>
       </c>
     </row>
   </sheetData>
@@ -9195,28 +9195,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>334.3701950569167</v>
+        <v>382.4110163712377</v>
       </c>
       <c r="AB2" t="n">
-        <v>457.5000522487808</v>
+        <v>523.2316233824907</v>
       </c>
       <c r="AC2" t="n">
-        <v>413.8368893675126</v>
+        <v>473.2951316070607</v>
       </c>
       <c r="AD2" t="n">
-        <v>334370.1950569167</v>
+        <v>382411.0163712378</v>
       </c>
       <c r="AE2" t="n">
-        <v>457500.0522487808</v>
+        <v>523231.6233824907</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.981006128025973e-06</v>
+        <v>3.572222834006994e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.15354938271605</v>
       </c>
       <c r="AH2" t="n">
-        <v>413836.8893675126</v>
+        <v>473295.1316070607</v>
       </c>
     </row>
     <row r="3">
@@ -9301,28 +9301,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>243.1797953165495</v>
+        <v>281.6124702697195</v>
       </c>
       <c r="AB3" t="n">
-        <v>332.7293242873488</v>
+        <v>385.3146056883872</v>
       </c>
       <c r="AC3" t="n">
-        <v>300.9741045660027</v>
+        <v>348.5407205139323</v>
       </c>
       <c r="AD3" t="n">
-        <v>243179.7953165495</v>
+        <v>281612.4702697195</v>
       </c>
       <c r="AE3" t="n">
-        <v>332729.3242873488</v>
+        <v>385314.6056883872</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.407732831117085e-06</v>
+        <v>4.341712060262736e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.17824074074074</v>
       </c>
       <c r="AH3" t="n">
-        <v>300974.1045660027</v>
+        <v>348540.7205139323</v>
       </c>
     </row>
     <row r="4">
@@ -9407,28 +9407,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>218.0822636042533</v>
+        <v>266.0376545554543</v>
       </c>
       <c r="AB4" t="n">
-        <v>298.3897741736471</v>
+        <v>364.0044557157542</v>
       </c>
       <c r="AC4" t="n">
-        <v>269.9118729192807</v>
+        <v>329.264381345704</v>
       </c>
       <c r="AD4" t="n">
-        <v>218082.2636042533</v>
+        <v>266037.6545554543</v>
       </c>
       <c r="AE4" t="n">
-        <v>298389.7741736472</v>
+        <v>364004.4557157542</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.503146424909836e-06</v>
+        <v>4.513765348538413e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.82716049382716</v>
       </c>
       <c r="AH4" t="n">
-        <v>269911.8729192807</v>
+        <v>329264.381345704</v>
       </c>
     </row>
   </sheetData>
@@ -9704,28 +9704,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>258.9240624932768</v>
+        <v>305.0974136446375</v>
       </c>
       <c r="AB2" t="n">
-        <v>354.2713252267501</v>
+        <v>417.4477412965286</v>
       </c>
       <c r="AC2" t="n">
-        <v>320.4601671700362</v>
+        <v>377.6071147587717</v>
       </c>
       <c r="AD2" t="n">
-        <v>258924.0624932768</v>
+        <v>305097.4136446374</v>
       </c>
       <c r="AE2" t="n">
-        <v>354271.3252267501</v>
+        <v>417447.7412965286</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.275991939134893e-06</v>
+        <v>4.24627345413087e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.11188271604938</v>
       </c>
       <c r="AH2" t="n">
-        <v>320460.1671700362</v>
+        <v>377607.1147587717</v>
       </c>
     </row>
     <row r="3">
@@ -9810,28 +9810,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>202.0363877971182</v>
+        <v>248.2096494399272</v>
       </c>
       <c r="AB3" t="n">
-        <v>276.4350990002561</v>
+        <v>339.6113926004536</v>
       </c>
       <c r="AC3" t="n">
-        <v>250.0525211308509</v>
+        <v>307.1993579383507</v>
       </c>
       <c r="AD3" t="n">
-        <v>202036.3877971182</v>
+        <v>248209.6494399272</v>
       </c>
       <c r="AE3" t="n">
-        <v>276435.099000256</v>
+        <v>339611.3926004536</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.562288112653499e-06</v>
+        <v>4.780410601423838e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.981481481481483</v>
       </c>
       <c r="AH3" t="n">
-        <v>250052.5211308509</v>
+        <v>307199.3579383507</v>
       </c>
     </row>
     <row r="4">
@@ -9916,28 +9916,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>202.9264609712137</v>
+        <v>249.0997226140226</v>
       </c>
       <c r="AB4" t="n">
-        <v>277.6529363843099</v>
+        <v>340.8292299845074</v>
       </c>
       <c r="AC4" t="n">
-        <v>251.1541298242166</v>
+        <v>308.3009666317163</v>
       </c>
       <c r="AD4" t="n">
-        <v>202926.4609712136</v>
+        <v>249099.7226140226</v>
       </c>
       <c r="AE4" t="n">
-        <v>277652.9363843099</v>
+        <v>340829.2299845074</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.562526742512652e-06</v>
+        <v>4.780855808464716e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.981481481481483</v>
       </c>
       <c r="AH4" t="n">
-        <v>251154.1298242166</v>
+        <v>308300.9666317164</v>
       </c>
     </row>
   </sheetData>
@@ -17546,28 +17546,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>206.3055580862637</v>
+        <v>250.9690791181344</v>
       </c>
       <c r="AB2" t="n">
-        <v>282.2763661323626</v>
+        <v>343.3869660236205</v>
       </c>
       <c r="AC2" t="n">
-        <v>255.3363059261409</v>
+        <v>310.6145959330622</v>
       </c>
       <c r="AD2" t="n">
-        <v>206305.5580862637</v>
+        <v>250969.0791181344</v>
       </c>
       <c r="AE2" t="n">
-        <v>282276.3661323626</v>
+        <v>343386.9660236205</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.524119348994404e-06</v>
+        <v>4.853975111568108e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.43287037037037</v>
       </c>
       <c r="AH2" t="n">
-        <v>255336.3059261409</v>
+        <v>310614.5959330622</v>
       </c>
     </row>
     <row r="3">
@@ -17652,28 +17652,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>200.6584923745418</v>
+        <v>236.5258724690631</v>
       </c>
       <c r="AB3" t="n">
-        <v>274.549801694632</v>
+        <v>323.6251334970642</v>
       </c>
       <c r="AC3" t="n">
-        <v>248.3471539540436</v>
+        <v>292.7388049669281</v>
       </c>
       <c r="AD3" t="n">
-        <v>200658.4923745418</v>
+        <v>236525.8724690631</v>
       </c>
       <c r="AE3" t="n">
-        <v>274549.801694632</v>
+        <v>323625.1334970642</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.580092949873061e-06</v>
+        <v>4.961614421760823e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.228395061728396</v>
       </c>
       <c r="AH3" t="n">
-        <v>248347.1539540436</v>
+        <v>292738.8049669281</v>
       </c>
     </row>
   </sheetData>
@@ -17949,28 +17949,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>189.433919296596</v>
+        <v>231.359001701088</v>
       </c>
       <c r="AB2" t="n">
-        <v>259.1918456161792</v>
+        <v>316.5555929660736</v>
       </c>
       <c r="AC2" t="n">
-        <v>234.4549396486867</v>
+        <v>286.3439714620504</v>
       </c>
       <c r="AD2" t="n">
-        <v>189433.919296596</v>
+        <v>231359.001701088</v>
       </c>
       <c r="AE2" t="n">
-        <v>259191.8456161792</v>
+        <v>316555.5929660735</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.482819012085948e-06</v>
+        <v>5.121060809394991e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.29320987654321</v>
       </c>
       <c r="AH2" t="n">
-        <v>234454.9396486867</v>
+        <v>286343.9714620505</v>
       </c>
     </row>
   </sheetData>
@@ -18246,28 +18246,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>418.5975212367864</v>
+        <v>477.9736257118901</v>
       </c>
       <c r="AB2" t="n">
-        <v>572.7435957754581</v>
+        <v>653.9846014071501</v>
       </c>
       <c r="AC2" t="n">
-        <v>518.0817508453329</v>
+        <v>591.5692289220037</v>
       </c>
       <c r="AD2" t="n">
-        <v>418597.5212367864</v>
+        <v>477973.6257118901</v>
       </c>
       <c r="AE2" t="n">
-        <v>572743.595775458</v>
+        <v>653984.60140715</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.733914958839803e-06</v>
+        <v>3.046420183593108e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.32638888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>518081.7508453329</v>
+        <v>591569.2289220038</v>
       </c>
     </row>
     <row r="3">
@@ -18352,28 +18352,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>285.4167021002373</v>
+        <v>334.9678319511743</v>
       </c>
       <c r="AB3" t="n">
-        <v>390.5197235097651</v>
+        <v>458.3177654133829</v>
       </c>
       <c r="AC3" t="n">
-        <v>353.2490691958666</v>
+        <v>414.5765611353527</v>
       </c>
       <c r="AD3" t="n">
-        <v>285416.7021002373</v>
+        <v>334967.8319511743</v>
       </c>
       <c r="AE3" t="n">
-        <v>390519.7235097651</v>
+        <v>458317.7654133829</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.205753423455402e-06</v>
+        <v>3.875421752944783e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.6875</v>
       </c>
       <c r="AH3" t="n">
-        <v>353249.0691958666</v>
+        <v>414576.5611353527</v>
       </c>
     </row>
     <row r="4">
@@ -18458,28 +18458,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>244.6654338024053</v>
+        <v>294.1312227987736</v>
       </c>
       <c r="AB4" t="n">
-        <v>334.7620404054399</v>
+        <v>402.4433151870221</v>
       </c>
       <c r="AC4" t="n">
-        <v>302.812821110719</v>
+        <v>364.0346900183122</v>
       </c>
       <c r="AD4" t="n">
-        <v>244665.4338024053</v>
+        <v>294131.2227987736</v>
       </c>
       <c r="AE4" t="n">
-        <v>334762.0404054399</v>
+        <v>402443.315187022</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.381681923528087e-06</v>
+        <v>4.184521187584476e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.973765432098766</v>
       </c>
       <c r="AH4" t="n">
-        <v>302812.821110719</v>
+        <v>364034.6900183122</v>
       </c>
     </row>
     <row r="5">
@@ -18564,28 +18564,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>233.1358634569927</v>
+        <v>282.6016524533609</v>
       </c>
       <c r="AB5" t="n">
-        <v>318.9867736101094</v>
+        <v>386.6680483916833</v>
       </c>
       <c r="AC5" t="n">
-        <v>288.5431236376038</v>
+        <v>349.7649925451946</v>
       </c>
       <c r="AD5" t="n">
-        <v>233135.8634569927</v>
+        <v>282601.6524533609</v>
       </c>
       <c r="AE5" t="n">
-        <v>318986.7736101093</v>
+        <v>386668.0483916833</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.437628959130547e-06</v>
+        <v>4.282817922151885e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.765432098765432</v>
       </c>
       <c r="AH5" t="n">
-        <v>288543.1236376038</v>
+        <v>349764.9925451946</v>
       </c>
     </row>
     <row r="6">
@@ -18670,28 +18670,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>232.7565074928351</v>
+        <v>282.2222964892034</v>
       </c>
       <c r="AB6" t="n">
-        <v>318.4677220439453</v>
+        <v>386.148996825519</v>
       </c>
       <c r="AC6" t="n">
-        <v>288.0736096244208</v>
+        <v>349.2954785320116</v>
       </c>
       <c r="AD6" t="n">
-        <v>232756.5074928351</v>
+        <v>282222.2964892033</v>
       </c>
       <c r="AE6" t="n">
-        <v>318467.7220439453</v>
+        <v>386148.996825519</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.445439386873069e-06</v>
+        <v>4.296540535591493e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>9</v>
+        <v>8.738425925925926</v>
       </c>
       <c r="AH6" t="n">
-        <v>288073.6096244208</v>
+        <v>349295.4785320116</v>
       </c>
     </row>
   </sheetData>
@@ -18967,28 +18967,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>556.3245327300872</v>
+        <v>628.0446287909756</v>
       </c>
       <c r="AB2" t="n">
-        <v>761.1877689875106</v>
+        <v>859.3183684853474</v>
       </c>
       <c r="AC2" t="n">
-        <v>688.5410766490854</v>
+        <v>777.3062294580101</v>
       </c>
       <c r="AD2" t="n">
-        <v>556324.5327300872</v>
+        <v>628044.6287909755</v>
       </c>
       <c r="AE2" t="n">
-        <v>761187.7689875106</v>
+        <v>859318.3684853474</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.462946146031794e-06</v>
+        <v>2.501474875491334e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.07793209876543</v>
       </c>
       <c r="AH2" t="n">
-        <v>688541.0766490854</v>
+        <v>777306.2294580101</v>
       </c>
     </row>
     <row r="3">
@@ -19073,28 +19073,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>353.1292598557636</v>
+        <v>404.3335423718208</v>
       </c>
       <c r="AB3" t="n">
-        <v>483.1670322980934</v>
+        <v>553.2269906100771</v>
       </c>
       <c r="AC3" t="n">
-        <v>437.0542488647516</v>
+        <v>500.4277830852086</v>
       </c>
       <c r="AD3" t="n">
-        <v>353129.2598557636</v>
+        <v>404333.5423718208</v>
       </c>
       <c r="AE3" t="n">
-        <v>483167.0322980934</v>
+        <v>553226.9906100772</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.9767681477723e-06</v>
+        <v>3.380053236912854e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.41666666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>437054.2488647516</v>
+        <v>500427.7830852086</v>
       </c>
     </row>
     <row r="4">
@@ -19179,28 +19179,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>302.7499692186238</v>
+        <v>353.8689108801094</v>
       </c>
       <c r="AB4" t="n">
-        <v>414.2358642709177</v>
+        <v>484.1790554607037</v>
       </c>
       <c r="AC4" t="n">
-        <v>374.7017747685874</v>
+        <v>437.9696859571057</v>
       </c>
       <c r="AD4" t="n">
-        <v>302749.9692186238</v>
+        <v>353868.9108801094</v>
       </c>
       <c r="AE4" t="n">
-        <v>414235.8642709177</v>
+        <v>484179.0554607037</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.174855977448075e-06</v>
+        <v>3.718761350276167e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.467592592592592</v>
       </c>
       <c r="AH4" t="n">
-        <v>374701.7747685874</v>
+        <v>437969.6859571057</v>
       </c>
     </row>
     <row r="5">
@@ -19285,28 +19285,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>280.255548773673</v>
+        <v>321.2872653718863</v>
       </c>
       <c r="AB5" t="n">
-        <v>383.4580058343449</v>
+        <v>439.5994106755997</v>
       </c>
       <c r="AC5" t="n">
-        <v>346.8613119442056</v>
+        <v>397.6446599023676</v>
       </c>
       <c r="AD5" t="n">
-        <v>280255.548773673</v>
+        <v>321287.2653718863</v>
       </c>
       <c r="AE5" t="n">
-        <v>383458.0058343449</v>
+        <v>439599.4106755997</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.284762428890389e-06</v>
+        <v>3.90668913400429e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>10</v>
+        <v>9.012345679012347</v>
       </c>
       <c r="AH5" t="n">
-        <v>346861.3119442055</v>
+        <v>397644.6599023676</v>
       </c>
     </row>
     <row r="6">
@@ -19391,28 +19391,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>254.954032804306</v>
+        <v>306.1582258118152</v>
       </c>
       <c r="AB6" t="n">
-        <v>348.8393554607866</v>
+        <v>418.8991913033911</v>
       </c>
       <c r="AC6" t="n">
-        <v>315.5466169748236</v>
+        <v>378.9200404141022</v>
       </c>
       <c r="AD6" t="n">
-        <v>254954.032804306</v>
+        <v>306158.2258118152</v>
       </c>
       <c r="AE6" t="n">
-        <v>348839.3554607866</v>
+        <v>418899.1913033911</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.348763320235378e-06</v>
+        <v>4.016123525791574e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>9</v>
+        <v>8.769290123456791</v>
       </c>
       <c r="AH6" t="n">
-        <v>315546.6169748236</v>
+        <v>378920.0404141023</v>
       </c>
     </row>
     <row r="7">
@@ -19497,28 +19497,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>252.2361934142998</v>
+        <v>303.4403864218091</v>
       </c>
       <c r="AB7" t="n">
-        <v>345.1206877047705</v>
+        <v>415.1805235473731</v>
       </c>
       <c r="AC7" t="n">
-        <v>312.1828536502575</v>
+        <v>375.5562770895356</v>
       </c>
       <c r="AD7" t="n">
-        <v>252236.1934142998</v>
+        <v>303440.3864218091</v>
       </c>
       <c r="AE7" t="n">
-        <v>345120.6877047705</v>
+        <v>415180.5235473731</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.357677539463579e-06</v>
+        <v>4.031365847249854e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>9</v>
+        <v>8.734567901234568</v>
       </c>
       <c r="AH7" t="n">
-        <v>312182.8536502575</v>
+        <v>375556.2770895356</v>
       </c>
     </row>
     <row r="8">
@@ -19603,28 +19603,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>253.06358850193</v>
+        <v>304.2677815094393</v>
       </c>
       <c r="AB8" t="n">
-        <v>346.2527661657606</v>
+        <v>416.3126020083637</v>
       </c>
       <c r="AC8" t="n">
-        <v>313.2068881318132</v>
+        <v>376.5803115710915</v>
       </c>
       <c r="AD8" t="n">
-        <v>253063.58850193</v>
+        <v>304267.7815094393</v>
       </c>
       <c r="AE8" t="n">
-        <v>346252.7661657606</v>
+        <v>416312.6020083638</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.357570782347073e-06</v>
+        <v>4.031183304477898e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>9</v>
+        <v>8.734567901234568</v>
       </c>
       <c r="AH8" t="n">
-        <v>313206.8881318132</v>
+        <v>376580.3115710915</v>
       </c>
     </row>
   </sheetData>
@@ -19900,28 +19900,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>190.6975529888409</v>
+        <v>239.5251237893238</v>
       </c>
       <c r="AB2" t="n">
-        <v>260.9208049814919</v>
+        <v>327.7288414710726</v>
       </c>
       <c r="AC2" t="n">
-        <v>236.0188895587842</v>
+        <v>296.4508608114887</v>
       </c>
       <c r="AD2" t="n">
-        <v>190697.5529888409</v>
+        <v>239525.1237893238</v>
       </c>
       <c r="AE2" t="n">
-        <v>260920.8049814919</v>
+        <v>327728.8414710726</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.294622257224747e-06</v>
+        <v>4.918432378356872e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.53163580246914</v>
       </c>
       <c r="AH2" t="n">
-        <v>236018.8895587842</v>
+        <v>296450.8608114887</v>
       </c>
     </row>
   </sheetData>
@@ -20197,28 +20197,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>280.1505570573209</v>
+        <v>326.9565255866973</v>
       </c>
       <c r="AB2" t="n">
-        <v>383.3143515361243</v>
+        <v>447.3563426116129</v>
       </c>
       <c r="AC2" t="n">
-        <v>346.7313678105871</v>
+        <v>404.6612811413301</v>
       </c>
       <c r="AD2" t="n">
-        <v>280150.5570573209</v>
+        <v>326956.5255866973</v>
       </c>
       <c r="AE2" t="n">
-        <v>383314.3515361242</v>
+        <v>447356.3426116129</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.171096233223864e-06</v>
+        <v>4.000098336933447e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.44753086419753</v>
       </c>
       <c r="AH2" t="n">
-        <v>346731.367810587</v>
+        <v>404661.28114133</v>
       </c>
     </row>
     <row r="3">
@@ -20303,28 +20303,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>207.611074237731</v>
+        <v>254.4169532585557</v>
       </c>
       <c r="AB3" t="n">
-        <v>284.062630926107</v>
+        <v>348.1044995320142</v>
       </c>
       <c r="AC3" t="n">
-        <v>256.9520921150093</v>
+        <v>314.8818946645163</v>
       </c>
       <c r="AD3" t="n">
-        <v>207611.074237731</v>
+        <v>254416.9532585557</v>
       </c>
       <c r="AE3" t="n">
-        <v>284062.630926107</v>
+        <v>348104.4995320142</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.54263581227601e-06</v>
+        <v>4.684634945457976e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.919753086419753</v>
       </c>
       <c r="AH3" t="n">
-        <v>256952.0921150093</v>
+        <v>314881.8946645163</v>
       </c>
     </row>
     <row r="4">
@@ -20409,28 +20409,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>207.8512181103672</v>
+        <v>254.6570971311919</v>
       </c>
       <c r="AB4" t="n">
-        <v>284.3912063670475</v>
+        <v>348.4330749729548</v>
       </c>
       <c r="AC4" t="n">
-        <v>257.2493087770251</v>
+        <v>315.1791113265322</v>
       </c>
       <c r="AD4" t="n">
-        <v>207851.2181103672</v>
+        <v>254657.0971311919</v>
       </c>
       <c r="AE4" t="n">
-        <v>284391.2063670475</v>
+        <v>348433.0749729548</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.545457631863748e-06</v>
+        <v>4.689833957674618e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.912037037037038</v>
       </c>
       <c r="AH4" t="n">
-        <v>257249.3087770251</v>
+        <v>315179.1113265321</v>
       </c>
     </row>
   </sheetData>
@@ -20706,28 +20706,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>358.5653982822685</v>
+        <v>416.8479837276827</v>
       </c>
       <c r="AB2" t="n">
-        <v>490.6049967187388</v>
+        <v>570.3498013713548</v>
       </c>
       <c r="AC2" t="n">
-        <v>443.7823444003391</v>
+        <v>515.9164168194459</v>
       </c>
       <c r="AD2" t="n">
-        <v>358565.3982822684</v>
+        <v>416847.9837276827</v>
       </c>
       <c r="AE2" t="n">
-        <v>490604.9967187388</v>
+        <v>570349.8013713548</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.891463967146809e-06</v>
+        <v>3.378962341519683e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.54320987654321</v>
       </c>
       <c r="AH2" t="n">
-        <v>443782.3444003391</v>
+        <v>515916.4168194458</v>
       </c>
     </row>
     <row r="3">
@@ -20812,28 +20812,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>258.3873658192949</v>
+        <v>306.7855948232146</v>
       </c>
       <c r="AB3" t="n">
-        <v>353.5369931600219</v>
+        <v>419.7575852623551</v>
       </c>
       <c r="AC3" t="n">
-        <v>319.795918725115</v>
+        <v>379.6965104583862</v>
       </c>
       <c r="AD3" t="n">
-        <v>258387.3658192949</v>
+        <v>306785.5948232146</v>
       </c>
       <c r="AE3" t="n">
-        <v>353536.9931600219</v>
+        <v>419757.585262355</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.330058565310093e-06</v>
+        <v>4.162479583258747e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.371141975308641</v>
       </c>
       <c r="AH3" t="n">
-        <v>319795.918725115</v>
+        <v>379696.5104583862</v>
       </c>
     </row>
     <row r="4">
@@ -20918,28 +20918,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>223.6803358110404</v>
+        <v>272.1638161609835</v>
       </c>
       <c r="AB4" t="n">
-        <v>306.0493035364851</v>
+        <v>372.3865402916147</v>
       </c>
       <c r="AC4" t="n">
-        <v>276.8403875499487</v>
+        <v>336.8464915339741</v>
       </c>
       <c r="AD4" t="n">
-        <v>223680.3358110404</v>
+        <v>272163.8161609835</v>
       </c>
       <c r="AE4" t="n">
-        <v>306049.3035364851</v>
+        <v>372386.5402916147</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.480048975057506e-06</v>
+        <v>4.430426504230295e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.804012345679013</v>
       </c>
       <c r="AH4" t="n">
-        <v>276840.3875499487</v>
+        <v>336846.4915339741</v>
       </c>
     </row>
     <row r="5">
@@ -21024,28 +21024,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>223.2882799076008</v>
+        <v>271.7717602575437</v>
       </c>
       <c r="AB5" t="n">
-        <v>305.5128753531134</v>
+        <v>371.8501121082427</v>
       </c>
       <c r="AC5" t="n">
-        <v>276.3551553195162</v>
+        <v>336.3612593035414</v>
       </c>
       <c r="AD5" t="n">
-        <v>223288.2799076008</v>
+        <v>271771.7602575437</v>
       </c>
       <c r="AE5" t="n">
-        <v>305512.8753531134</v>
+        <v>371850.1121082428</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.485256189282699e-06</v>
+        <v>4.439728812430061e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.784722222222221</v>
       </c>
       <c r="AH5" t="n">
-        <v>276355.1553195162</v>
+        <v>336361.2593035414</v>
       </c>
     </row>
   </sheetData>
